--- a/templates/AutomationOrg/RSTK-9521-Consigned WO.xlsx
+++ b/templates/AutomationOrg/RSTK-9521-Consigned WO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\EventDemo\Parallel-Execution\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC4BEB0-E901-4922-AD2F-425C833E5838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4764EDB2-F631-42AA-8914-AF21FECA7312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create WO" sheetId="1" r:id="rId1"/>
@@ -677,7 +677,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="A3:XFD5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1133,8 +1133,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1352,13 +1352,10 @@
         <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
-      </c>
-      <c r="L7">
-        <v>5</v>
       </c>
       <c r="N7" t="s">
         <v>25</v>
@@ -1599,7 +1596,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="A4:XFD4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1845,7 +1842,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1989,7 +1986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34EC26A-E704-4A02-9DEB-2216FF4892C8}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
